--- a/excelTables/Buyers.xlsx
+++ b/excelTables/Buyers.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>ID</t>
   </si>
@@ -82,6 +82,18 @@
   </si>
   <si>
     <t>a@mail.ru</t>
+  </si>
+  <si>
+    <t>Боков</t>
+  </si>
+  <si>
+    <t>Алексеевич</t>
+  </si>
+  <si>
+    <t>3243543</t>
+  </si>
+  <si>
+    <t>КАСКО</t>
   </si>
 </sst>
 </file>
@@ -401,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:J5"/>
@@ -507,6 +519,32 @@
         <v>18</v>
       </c>
     </row>
+    <row r="4">
+      <c r="B4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="0">
+        <v>80000</v>
+      </c>
+      <c r="H4" s="0">
+        <v>45062</v>
+      </c>
+      <c r="I4" s="0">
+        <v>45428</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/excelTables/Buyers.xlsx
+++ b/excelTables/Buyers.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>ID</t>
   </si>
@@ -94,6 +94,21 @@
   </si>
   <si>
     <t>КАСКО</t>
+  </si>
+  <si>
+    <t>gfbgf</t>
+  </si>
+  <si>
+    <t>fgbgfb</t>
+  </si>
+  <si>
+    <t>fgbfg</t>
+  </si>
+  <si>
+    <t>апипрпи</t>
+  </si>
+  <si>
+    <t>krutoy.fox.reserve@mail.ru</t>
   </si>
 </sst>
 </file>
@@ -413,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:J5"/>
@@ -545,6 +560,35 @@
         <v>45428</v>
       </c>
     </row>
+    <row r="5">
+      <c r="B5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="0">
+        <v>12147</v>
+      </c>
+      <c r="H5" s="0">
+        <v>45069</v>
+      </c>
+      <c r="I5" s="0">
+        <v>45435</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
